--- a/Logikai topologia .xlsx
+++ b/Logikai topologia .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molnarbencecsaba.TURR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vargaczgergo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C0BA1-2EB8-4EFE-BB7F-30816F596F65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563BAA3-B3B6-4195-9738-70C4C1269A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="165">
   <si>
     <t>Vlan azonosító</t>
   </si>
@@ -440,27 +440,15 @@
     <t>S0/2/0,S0/2/1,S0/1/0</t>
   </si>
   <si>
-    <t>20.20.20.13, 20.20.20.5, 20.20.20.10</t>
-  </si>
-  <si>
     <t>S0/2/0,S0/2/1,S0/1/0, S0/1/1</t>
   </si>
   <si>
-    <t>20.20.20.1, 20.20.20.11, 20.20.20.15, 20.20.20.16</t>
-  </si>
-  <si>
-    <t>20.20.20.6, 20.20.20.7, 20.20.20.12</t>
-  </si>
-  <si>
     <t>Alkalmazott protokollok</t>
   </si>
   <si>
     <t>ACL</t>
   </si>
   <si>
-    <t>EIGRP</t>
-  </si>
-  <si>
     <t>HSRP</t>
   </si>
   <si>
@@ -482,9 +470,6 @@
     <t>Központ:</t>
   </si>
   <si>
-    <t>DHCP (Routerben és Szerverben is)</t>
-  </si>
-  <si>
     <t>Ether-channel</t>
   </si>
   <si>
@@ -495,13 +480,176 @@
   </si>
   <si>
     <t>Vezetéknélküli technológiák</t>
+  </si>
+  <si>
+    <t>DHCPV6,V4 (Routerben és Szerverben is)</t>
+  </si>
+  <si>
+    <t>&lt;--- Casino&amp;Hotel, Bank</t>
+  </si>
+  <si>
+    <t>Programozott hálózat</t>
+  </si>
+  <si>
+    <t>&lt;--- Bank</t>
+  </si>
+  <si>
+    <t>&lt;--- Irodaház</t>
+  </si>
+  <si>
+    <t>&lt;--- Casino&amp;Hotel-ből ----&gt; Bankba</t>
+  </si>
+  <si>
+    <t>&lt;--- Központ</t>
+  </si>
+  <si>
+    <t>&lt;--- Casino&amp;Hotel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>A hálózati infrastruktúrának legalább 3 telephelyet vagy irodát kell lefednie
+legalább egy telephelyen több VLAN kialakítását foglalja magában</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+tartalmaz második és harmadik rétegbeli redundáns megoldásokat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>IPv4 és IPv6 címzési rendszert egyaránt használ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Vezeték nélküli hálózatot is tartalmaz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+statikus és dinamikus forgalomirányítást egyaránt megvalósít
+statikus és dinamikus címfordítást alkalmaz
+WAN-összeköttetéseket is tartalmaz
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>virtuális magánhálózati kapcsolatot (VPN) is megvalósít</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+programozott hálózatkonfigurációt is használ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>forgalomirányítón megvalósított biztonsági funkciókat tartalmaz (pl. ACL-ek)
+hardveres tűzfaleszközt is alkalmaz</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Minimum 1-1 Linux és Windows kiszolgálót tartalmaz, melyek legalább az alábbi szolgáltatásokat nyújtják:
+­ Címtár (pl. Active Directory)
+­ DHCP
+­ DNS
+­ HTTP/HTTPS
+­ Fájl és nyomtató megosztás
+­ Automatizált mentés
+­ Kliens számítógépekre automatizált szoftvertelepítés
+A benyújtott anyagnak tartalmaznia kell az alábbiakat:
+a hálózat tervét, működésének leírását tartalmazó dokumentáció
+a hálózat tesztelésének dokumentációja
+A prototípus működésének, tesztelésének dokumentálása egy 2-5 perc hosszúságú videóval</t>
+    </r>
+  </si>
+  <si>
+    <t>30.30.10.5, 20.20.20.9, 30.30.20.10</t>
+  </si>
+  <si>
+    <t>30.30.10.16, 30.30.30.15, 20.20.20.1, 20.20.10.3</t>
+  </si>
+  <si>
+    <t>20.20.20.11, 30.30.30.20, 30.30.20.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -612,6 +760,13 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9"/>
       <name val="Liberation Sans"/>
       <charset val="238"/>
     </font>
@@ -784,7 +939,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -798,15 +966,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -839,7 +998,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,6 +1021,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -880,26 +1040,32 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1389,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:B75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1402,6 +1568,7 @@
     <col min="3" max="3" width="50.28515625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1414,13 +1581,21 @@
       <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
@@ -1432,10 +1607,11 @@
       <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="20"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" thickBot="1">
@@ -1448,8 +1624,10 @@
       <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
@@ -1461,6 +1639,10 @@
       <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
@@ -1472,6 +1654,10 @@
       <c r="C6" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -1483,6 +1669,10 @@
       <c r="C7" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
@@ -1494,11 +1684,12 @@
       <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>150</v>
+      <c r="G8" s="19"/>
+      <c r="H8" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" thickBot="1">
       <c r="A9" s="5" t="s">
@@ -1510,8 +1701,10 @@
       <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
@@ -1523,6 +1716,10 @@
       <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
@@ -1534,6 +1731,10 @@
       <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" thickBot="1">
       <c r="A12" s="5" t="s">
@@ -1545,6 +1746,10 @@
       <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
@@ -1556,11 +1761,12 @@
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickBot="1">
       <c r="A14" s="5" t="s">
@@ -1572,8 +1778,10 @@
       <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
@@ -1585,13 +1793,21 @@
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" thickBot="1">
       <c r="A17" s="7" t="s">
@@ -1603,6 +1819,10 @@
       <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
@@ -1614,11 +1834,12 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" thickBot="1">
       <c r="A19" s="7" t="s">
@@ -1630,8 +1851,10 @@
       <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
@@ -1643,6 +1866,10 @@
       <c r="C20" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7" t="s">
@@ -1654,6 +1881,10 @@
       <c r="C21" s="7" t="s">
         <v>72</v>
       </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7" t="s">
@@ -1832,11 +2063,11 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
@@ -1948,7 +2179,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>102</v>
       </c>
@@ -1959,7 +2190,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>103</v>
       </c>
@@ -1970,7 +2201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
         <v>104</v>
       </c>
@@ -1981,7 +2212,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:9">
       <c r="A52" s="9" t="s">
         <v>105</v>
       </c>
@@ -1992,7 +2223,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:9">
       <c r="A53" s="9" t="s">
         <v>106</v>
       </c>
@@ -2003,7 +2234,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:9">
       <c r="A54" s="9" t="s">
         <v>107</v>
       </c>
@@ -2014,7 +2245,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:9">
       <c r="A55" s="9" t="s">
         <v>108</v>
       </c>
@@ -2025,7 +2256,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:9">
       <c r="A56" s="9" t="s">
         <v>109</v>
       </c>
@@ -2036,7 +2267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:9">
       <c r="A57" s="9" t="s">
         <v>110</v>
       </c>
@@ -2047,7 +2278,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
         <v>111</v>
       </c>
@@ -2058,14 +2289,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:9">
+      <c r="A59" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="11" t="s">
         <v>135</v>
       </c>
@@ -2073,111 +2304,352 @@
         <v>138</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="B64" s="18"/>
+      <c r="D64" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="17" t="s">
+      <c r="B68" s="13"/>
+      <c r="C68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="17"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="12" t="s">
+      <c r="B69" s="13"/>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="12"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="12"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="12"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="12"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" s="12"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B70" s="12"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" s="12"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B72" s="12"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="12" t="s">
+      <c r="B70" s="13"/>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="12"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74" s="12"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+    </row>
+    <row r="81" spans="4:9">
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+    </row>
+    <row r="82" spans="4:9">
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+    </row>
+    <row r="83" spans="4:9">
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+    </row>
+    <row r="84" spans="4:9">
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+    </row>
+    <row r="85" spans="4:9">
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+    </row>
+    <row r="86" spans="4:9">
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+    </row>
+    <row r="87" spans="4:9">
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+    </row>
+    <row r="88" spans="4:9">
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+    </row>
+    <row r="89" spans="4:9">
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+    </row>
+    <row r="90" spans="4:9">
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+    </row>
+    <row r="91" spans="4:9">
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
+    <mergeCell ref="D64:I91"/>
+    <mergeCell ref="J1:J21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G1:G19"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="H5:I7"/>
+    <mergeCell ref="H10:I12"/>
+    <mergeCell ref="H15:I17"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
@@ -2187,14 +2659,6 @@
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
